--- a/VersionRecords/Version3.0.2/定时器/定时器修改.xlsx
+++ b/VersionRecords/Version3.0.2/定时器/定时器修改.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version3.0.2\定时器\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" tabRatio="185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>定时器大类</t>
   </si>
@@ -121,19 +126,222 @@
   </si>
   <si>
     <t>LTS</t>
+  </si>
+  <si>
+    <t>HelpContentQuartz</t>
+  </si>
+  <si>
+    <t>putHelpContent</t>
+  </si>
+  <si>
+    <t>同步帮助内容至搜索引擎</t>
+  </si>
+  <si>
+    <t>KeywordQuartz</t>
+  </si>
+  <si>
+    <t>putKeyword</t>
+  </si>
+  <si>
+    <t>同步关键字至索索引擎</t>
+  </si>
+  <si>
+    <t>RoomScoreQuartz</t>
+  </si>
+  <si>
+    <t>calculateRoomScore</t>
+  </si>
+  <si>
+    <t>重新计算房源评分</t>
+  </si>
+  <si>
+    <t>RoomSearchQuartz</t>
+  </si>
+  <si>
+    <t>putRoomRelatedInfo</t>
+  </si>
+  <si>
+    <t>同步房源信息至索索引擎</t>
+  </si>
+  <si>
+    <t>RoomPriceQuartz</t>
+  </si>
+  <si>
+    <t>putRoomPrices</t>
+  </si>
+  <si>
+    <t>同步房源显示价格</t>
+  </si>
+  <si>
+    <t>雷传盛</t>
+  </si>
+  <si>
+    <t>杨斌</t>
+  </si>
+  <si>
+    <t>msgToPartnerWhenLoanDuedate</t>
+  </si>
+  <si>
+    <t>逾期还款催款提醒</t>
+  </si>
+  <si>
+    <t>王祥毅</t>
+  </si>
+  <si>
+    <t>HelpContentTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.HelpContentTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.HelpContentTask"}</t>
+  </si>
+  <si>
+    <t>每天00:00:00执行</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>KeywordTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.KeywordTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.KeywordTask"}</t>
+  </si>
+  <si>
+    <t>每天00:30:00执行</t>
+  </si>
+  <si>
+    <t>RoomScoreTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomScoreTask"}</t>
+  </si>
+  <si>
+    <t>每天01:30:02执行</t>
+  </si>
+  <si>
+    <t>RoomSearchTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomSearchTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomSearchTask"}</t>
+  </si>
+  <si>
+    <t>未使用</t>
+  </si>
+  <si>
+    <t>RoomPriceTask</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>com.mogoroom.tasktracker.task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.RoomPriceTask</t>
+    </r>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomPriceTask"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3:00:00执行</t>
+    </r>
+  </si>
+  <si>
+    <t>ITimerFacade</t>
+  </si>
+  <si>
+    <t>msgToPartnerComingHostAcct</t>
+  </si>
+  <si>
+    <t>业主账单快到期提醒打款</t>
+  </si>
+  <si>
+    <t>已经修改完成，每天跑一遍</t>
+  </si>
+  <si>
+    <t>MsgComingHostAcctTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.MsgComingHostAcctTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgComingHostAcctTask"}</t>
+  </si>
+  <si>
+    <t>每天早上9点</t>
+  </si>
+  <si>
+    <t>msgToPartnerHostAcctDuedate</t>
+  </si>
+  <si>
+    <t>业主账单逾期期提醒打款</t>
+  </si>
+  <si>
+    <t>MsgHostAcctDuedateTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.MsgHostAcctDuedateTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgHostAcctDuedateTask"}</t>
+  </si>
+  <si>
+    <t>MsgWhenLoanDuedateTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.taskMsgWhenLoanDuedateTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgWhenLoanDuedateTask"}</t>
+  </si>
+  <si>
+    <t>LoanQuartz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,158 +379,37 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,7 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,192 +430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -619,418 +526,404 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2495550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>143510</xdr:rowOff>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形标注 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1724025" y="1019175"/>
-          <a:ext cx="3257550" cy="676910"/>
+        <a:xfrm flipH="1">
+          <a:off x="2914650" y="3771900"/>
+          <a:ext cx="1619250" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -63528"/>
-            <a:gd name="adj2" fmla="val -65807"/>
+            <a:gd name="adj1" fmla="val -8822"/>
+            <a:gd name="adj2" fmla="val -107345"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1050,11 +943,12 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>这个定时器，请改为</a:t>
+            <a:t>这些定时器，请改为</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1062,13 +956,8 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>运行</a:t>
+            <a:t>运行。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1085,7 +974,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1334,15 +1223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
@@ -1366,7 +1254,7 @@
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:19">
+    <row r="2" spans="1:19" ht="40.5">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>19</v>
@@ -1478,11 +1366,377 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="25"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17.25" thickBot="1">
+      <c r="B7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" thickBot="1">
+      <c r="B9" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R2"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version3.0.2/定时器/定时器修改.xlsx
+++ b/VersionRecords/Version3.0.2/定时器/定时器修改.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version3.0.2\定时器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version3.0.2\定时器\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
   <si>
     <t>定时器大类</t>
   </si>
@@ -336,12 +336,110 @@
     <t>LoanQuartz</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>syncRepays</t>
+  </si>
+  <si>
+    <t>同步还款信息</t>
+  </si>
+  <si>
+    <t>田志敏</t>
+  </si>
+  <si>
+    <t>黄展明</t>
+  </si>
+  <si>
+    <t>还款状态同步失败，可以手动同步蘑菇宝付款状态</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncRepaysTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncRepaysTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncRepaysTask"}</t>
+  </si>
+  <si>
+    <t>30 22 */1 * * 
+00 6  * * *</t>
+  </si>
+  <si>
+    <t>submitLoanInfo</t>
+  </si>
+  <si>
+    <t>提交蘑菇宝信息</t>
+  </si>
+  <si>
+    <t>提交蘑菇宝数据到第三方机构，可重复执行</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitLoanInfoTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SubmitLoanInfoTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SubmitLoanInfoTask"}</t>
+  </si>
+  <si>
+    <t>*/4 * * * *</t>
+  </si>
+  <si>
+    <t>loopDealBuyBack</t>
+  </si>
+  <si>
+    <t>买回单买回处理</t>
+  </si>
+  <si>
+    <t>田东兴</t>
+  </si>
+  <si>
+    <t>买回单扣款后，可重复执行，但注意重复执行后，会重复发短信和消息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoopDealBuyBackTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.LoopDealBuyBackTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoopDealBuyBackTask"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 8 */1 * * </t>
+  </si>
+  <si>
+    <t>closeAllSuspendMogoBao</t>
+  </si>
+  <si>
+    <t>关闭待关闭的蘑菇宝</t>
+  </si>
+  <si>
+    <t>关闭需要关闭的蘑菇宝，该任务可重复执行</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseAllSuspendMogoBaoTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CloseAllSuspendMogoBaoTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CloseAllSuspendMogoBaoTask"}</t>
+  </si>
+  <si>
+    <t>30 */4 * * *</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +506,27 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -617,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +926,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -816,74 +947,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -901,13 +964,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2047875</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -974,7 +1037,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1224,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1732,6 +1795,186 @@
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
     </row>
+    <row r="11" spans="1:19" ht="27">
+      <c r="B11" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R2"/>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/VersionRecords/Version3.0.2/定时器/定时器修改.xlsx
+++ b/VersionRecords/Version3.0.2/定时器/定时器修改.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="132">
   <si>
     <t>定时器大类</t>
   </si>
@@ -247,6 +247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>com.mogoroom.tasktracker.task</t>
@@ -256,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.RoomPriceTask</t>
@@ -270,6 +272,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>每天0</t>
@@ -279,6 +282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3:00:00执行</t>
@@ -433,6 +437,34 @@
   </si>
   <si>
     <t>30 */4 * * *</t>
+  </si>
+  <si>
+    <t>ZhimaScoreQuartz</t>
+  </si>
+  <si>
+    <t>updateZhimaScore</t>
+  </si>
+  <si>
+    <t>更新芝麻信用分数</t>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+  </si>
+  <si>
+    <t>同步失败，可重复执行同步任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncZhimaScoreTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncZhimaScoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncZhimaScoreTask"}</t>
+  </si>
+  <si>
+    <t>0 0 7 * *</t>
   </si>
 </sst>
 </file>
@@ -452,6 +484,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -459,6 +492,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -466,6 +500,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -473,18 +508,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -492,18 +530,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -736,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,6 +979,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1287,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1975,6 +2019,51 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
     </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R2"/>
   <phoneticPr fontId="5" type="noConversion"/>
